--- a/data/trans_orig/P27_1-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P27_1-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>55899</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42233</v>
+        <v>43585</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71801</v>
+        <v>70562</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09850804361491494</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07442500816077102</v>
+        <v>0.07680795722931048</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1265313728046992</v>
+        <v>0.1243476632479825</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -765,19 +765,19 @@
         <v>39307</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27957</v>
+        <v>28211</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53371</v>
+        <v>54413</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04341934972604516</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03088159578918749</v>
+        <v>0.03116205590436954</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05895376172211446</v>
+        <v>0.06010555734677445</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -786,19 +786,19 @@
         <v>95207</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>75576</v>
+        <v>76789</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114284</v>
+        <v>117383</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06464521632515771</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05131613081007059</v>
+        <v>0.05213947151965463</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07759855581471133</v>
+        <v>0.07970288463830713</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>131465</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>111992</v>
+        <v>111858</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>150425</v>
+        <v>152491</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2316736373178581</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1973567115639349</v>
+        <v>0.1971212069568247</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2650858495116302</v>
+        <v>0.2687256397646611</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>117</v>
@@ -836,19 +836,19 @@
         <v>123580</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>103503</v>
+        <v>102408</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>146649</v>
+        <v>144916</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1365079157411285</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1143300881557137</v>
+        <v>0.1131213113475529</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1619897537623908</v>
+        <v>0.1600754623975831</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>249</v>
@@ -857,19 +857,19 @@
         <v>255045</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>225252</v>
+        <v>227087</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>284168</v>
+        <v>288025</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1731756014021978</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1529462519858215</v>
+        <v>0.1541922595883147</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1929501988416116</v>
+        <v>0.1955689657679787</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>178667</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>155753</v>
+        <v>156196</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>200667</v>
+        <v>202494</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3148546057119588</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2744741866930449</v>
+        <v>0.2752555640376556</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3536239718623921</v>
+        <v>0.3568445406140346</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>356</v>
@@ -907,19 +907,19 @@
         <v>372382</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>340600</v>
+        <v>340446</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>399617</v>
+        <v>400301</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4113372766133438</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3762299636792883</v>
+        <v>0.3760603696414388</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4414206956474099</v>
+        <v>0.442176841253735</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>527</v>
@@ -928,19 +928,19 @@
         <v>551049</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>514892</v>
+        <v>513606</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>585973</v>
+        <v>591039</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3741621657673659</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3496113062396733</v>
+        <v>0.3487381402953562</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3978757244952631</v>
+        <v>0.4013154696560071</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>201427</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>178332</v>
+        <v>178646</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>226438</v>
+        <v>227346</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3549637133552682</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3142641014356366</v>
+        <v>0.3148180792698522</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3990384532331995</v>
+        <v>0.4006386792220957</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>358</v>
@@ -978,19 +978,19 @@
         <v>370027</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>339679</v>
+        <v>342268</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>400174</v>
+        <v>402324</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4087354579194825</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3752130441676273</v>
+        <v>0.3780727697468429</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4420360746034273</v>
+        <v>0.4444106381469441</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>559</v>
@@ -999,19 +999,19 @@
         <v>571454</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>534245</v>
+        <v>534502</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>608615</v>
+        <v>607853</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3880170165052785</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3627521240847711</v>
+        <v>0.3629267502768396</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4132493069273516</v>
+        <v>0.4127321528290151</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>91418</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>73536</v>
+        <v>74374</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>109325</v>
+        <v>109936</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08733390932553503</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07025085685291808</v>
+        <v>0.071051489535206</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.104441398730406</v>
+        <v>0.105024924509556</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>51</v>
@@ -1124,19 +1124,19 @@
         <v>53082</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>40641</v>
+        <v>41352</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>69765</v>
+        <v>68969</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05173113071842445</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03960637322015424</v>
+        <v>0.040299242951887</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06798927268007403</v>
+        <v>0.06721438299191758</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>142</v>
@@ -1145,19 +1145,19 @@
         <v>144500</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>122903</v>
+        <v>122432</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>169601</v>
+        <v>170289</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06970985884772123</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05929114021987057</v>
+        <v>0.05906412683104606</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08181933701100561</v>
+        <v>0.08215117917760124</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>212358</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>183201</v>
+        <v>186961</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>237914</v>
+        <v>239545</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.202871499240101</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1750165800160217</v>
+        <v>0.1786091206360294</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.22728558203225</v>
+        <v>0.228843364590779</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>130</v>
@@ -1195,19 +1195,19 @@
         <v>135320</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>113594</v>
+        <v>113341</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>160430</v>
+        <v>158123</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1318767591276575</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1107028577980562</v>
+        <v>0.1104562802630261</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1563478428145083</v>
+        <v>0.1540990284215742</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>337</v>
@@ -1216,19 +1216,19 @@
         <v>347679</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>315794</v>
+        <v>314894</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>382286</v>
+        <v>385003</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1677277567471742</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1523461335620575</v>
+        <v>0.1519117273052942</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.184422992287759</v>
+        <v>0.1857339886345003</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>437787</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>405783</v>
+        <v>404575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>469442</v>
+        <v>467569</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4182293868001876</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.387655127144541</v>
+        <v>0.3865010532721496</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4484708432131124</v>
+        <v>0.446681587148587</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>415</v>
@@ -1266,19 +1266,19 @@
         <v>423884</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>393958</v>
+        <v>390369</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>457406</v>
+        <v>454502</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4130975398417275</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3839330966423855</v>
+        <v>0.3804353499567318</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4457657723974244</v>
+        <v>0.4429356982666031</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>837</v>
@@ -1287,19 +1287,19 @@
         <v>861671</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>817042</v>
+        <v>817614</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>908915</v>
+        <v>906664</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4156890252503659</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.394159077908812</v>
+        <v>0.3944349429577373</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4384803545957801</v>
+        <v>0.4373947600104641</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>305199</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>276411</v>
+        <v>277726</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>336510</v>
+        <v>334164</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2915652046341765</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2640628444409279</v>
+        <v>0.2653191355237571</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3214766131785223</v>
+        <v>0.3192357360158671</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>403</v>
@@ -1337,19 +1337,19 @@
         <v>413825</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>381943</v>
+        <v>385535</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>442797</v>
+        <v>448203</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4032945703121906</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3722233130852043</v>
+        <v>0.3757242670501307</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4315293713947363</v>
+        <v>0.4367970020365616</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>708</v>
@@ -1358,19 +1358,19 @@
         <v>719025</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>668552</v>
+        <v>676329</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>760541</v>
+        <v>762414</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3468733591547387</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3225243095695184</v>
+        <v>0.3262761595544922</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3669017525917741</v>
+        <v>0.3678053324167347</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>78752</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61761</v>
+        <v>60119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>97437</v>
+        <v>95915</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0729059802648139</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05717559249400721</v>
+        <v>0.05565568732695141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09020313890093792</v>
+        <v>0.08879414342619528</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>39</v>
@@ -1483,19 +1483,19 @@
         <v>38888</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28020</v>
+        <v>28943</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>53661</v>
+        <v>53632</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0417497209244734</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03008205757927089</v>
+        <v>0.03107332828456802</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05761062933248405</v>
+        <v>0.05757939970672103</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>113</v>
@@ -1504,19 +1504,19 @@
         <v>117640</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>96640</v>
+        <v>97673</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>140626</v>
+        <v>140785</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05847969446186726</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0480402085689445</v>
+        <v>0.04855368841745496</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06990597474652475</v>
+        <v>0.06998493397146424</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>215740</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>189765</v>
+        <v>190361</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>242937</v>
+        <v>243262</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.199723831368336</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1756770943866147</v>
+        <v>0.1762288691398039</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2249017890332114</v>
+        <v>0.225203172068506</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>152</v>
@@ -1554,19 +1554,19 @@
         <v>152073</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>130608</v>
+        <v>130989</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>175669</v>
+        <v>176473</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1632648207585398</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1402204261579126</v>
+        <v>0.1406284752004836</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1885968636635943</v>
+        <v>0.1894606001983111</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>361</v>
@@ -1575,19 +1575,19 @@
         <v>367813</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>336098</v>
+        <v>330678</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>403212</v>
+        <v>401553</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1828422121275893</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.167076562938359</v>
+        <v>0.1643821759996325</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2004393498887779</v>
+        <v>0.1996146958601853</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>415242</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>383826</v>
+        <v>385248</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>449339</v>
+        <v>448026</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3844157730852509</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3553318233820351</v>
+        <v>0.3566479459011248</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4159810206285811</v>
+        <v>0.4147655023645682</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>361</v>
@@ -1625,19 +1625,19 @@
         <v>370001</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>340490</v>
+        <v>342210</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>398797</v>
+        <v>401709</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3972304152570487</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3655479955845232</v>
+        <v>0.36739475911763</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4281460397009276</v>
+        <v>0.4312719789007508</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>767</v>
@@ -1646,19 +1646,19 @@
         <v>785243</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>741390</v>
+        <v>740986</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>830307</v>
+        <v>829882</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3903493381006597</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3685497238051058</v>
+        <v>0.3683487477824256</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4127510409208464</v>
+        <v>0.4125393748033413</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>370456</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>338924</v>
+        <v>340216</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>398851</v>
+        <v>400186</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3429544152815992</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3137631874416603</v>
+        <v>0.3149587598314545</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3692411750415187</v>
+        <v>0.3704767645516006</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>368</v>
@@ -1696,19 +1696,19 @@
         <v>370489</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>341529</v>
+        <v>338992</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>401487</v>
+        <v>397229</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3977550430599382</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3666629520328171</v>
+        <v>0.3639400301105851</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4310337143209657</v>
+        <v>0.4264627653022839</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>738</v>
@@ -1717,19 +1717,19 @@
         <v>740946</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>697508</v>
+        <v>699158</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>786261</v>
+        <v>787790</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3683287553098837</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3467354927844128</v>
+        <v>0.3475556659399053</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3908552300210565</v>
+        <v>0.3916156422048634</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>31136</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21380</v>
+        <v>20546</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43593</v>
+        <v>43342</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08188531960653592</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05622810028417655</v>
+        <v>0.05403436613636306</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1146467330190468</v>
+        <v>0.1139855761725767</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -1842,19 +1842,19 @@
         <v>18831</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11619</v>
+        <v>11880</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28000</v>
+        <v>28689</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06641670418887037</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04098122616077658</v>
+        <v>0.04190256400848866</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09875732765586601</v>
+        <v>0.1011877485299331</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -1863,19 +1863,19 @@
         <v>49967</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>36498</v>
+        <v>37717</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65453</v>
+        <v>66962</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07527797337257421</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05498716333875443</v>
+        <v>0.05682331697240302</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09860843815085447</v>
+        <v>0.1008825642202366</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>88324</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>72049</v>
+        <v>72091</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>106448</v>
+        <v>106432</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2322860148361853</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1894833161236116</v>
+        <v>0.1895929579828341</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2799501781620451</v>
+        <v>0.2799078044429122</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>47</v>
@@ -1913,19 +1913,19 @@
         <v>46978</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35313</v>
+        <v>34203</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>60310</v>
+        <v>59230</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1656921002961803</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1245497796593293</v>
+        <v>0.120635145741294</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2127174898492781</v>
+        <v>0.2089076716723922</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>132</v>
@@ -1934,19 +1934,19 @@
         <v>135302</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>114768</v>
+        <v>116588</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>157491</v>
+        <v>157429</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2038407378310974</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1729049795213645</v>
+        <v>0.175646756862765</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2372695656899424</v>
+        <v>0.2371769082045423</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>157597</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>138579</v>
+        <v>136479</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>178322</v>
+        <v>177717</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4144674917181226</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3644519279185278</v>
+        <v>0.3589283771238056</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4689714547179931</v>
+        <v>0.4673806677755685</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>124</v>
@@ -1984,19 +1984,19 @@
         <v>123621</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>108236</v>
+        <v>108983</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>140962</v>
+        <v>142530</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4360172093768683</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3817525127161382</v>
+        <v>0.3843869477767981</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4971807830398782</v>
+        <v>0.5027094811052354</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>281</v>
@@ -2005,19 +2005,19 @@
         <v>281218</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>257749</v>
+        <v>257354</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>307218</v>
+        <v>306363</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4236723521384575</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3883144366894357</v>
+        <v>0.3877201762330288</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4628428193092263</v>
+        <v>0.4615551958831751</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>103182</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>87365</v>
+        <v>86832</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>120294</v>
+        <v>121314</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2713611738391561</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2297623607379049</v>
+        <v>0.228361231155343</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.316363574611688</v>
+        <v>0.3190463896608201</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>92</v>
@@ -2055,19 +2055,19 @@
         <v>94094</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>78908</v>
+        <v>79137</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>110809</v>
+        <v>110613</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3318739861380811</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2783132376303099</v>
+        <v>0.2791217630738291</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3908272065656691</v>
+        <v>0.3901360813195475</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>192</v>
@@ -2076,19 +2076,19 @@
         <v>197276</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>174361</v>
+        <v>171673</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>220620</v>
+        <v>220713</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2972089366578708</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2626859700599095</v>
+        <v>0.2586354566170944</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3323778328555232</v>
+        <v>0.3325172916591992</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>257205</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>229183</v>
+        <v>228158</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>291441</v>
+        <v>289913</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08365354119085976</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07453964661891602</v>
+        <v>0.07420629073159352</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09478837110544701</v>
+        <v>0.09429130370510508</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>146</v>
@@ -2201,19 +2201,19 @@
         <v>150108</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>128171</v>
+        <v>126848</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>176678</v>
+        <v>175746</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04770806036968173</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04073611549520025</v>
+        <v>0.04031559099150121</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05615256494921166</v>
+        <v>0.05585654563991838</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>393</v>
@@ -2222,19 +2222,19 @@
         <v>407313</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>368341</v>
+        <v>373000</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>449862</v>
+        <v>453197</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06547356352759177</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05920888630122483</v>
+        <v>0.05995788723497874</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07231303915912572</v>
+        <v>0.07284919028076135</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>647888</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>601882</v>
+        <v>602620</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>693181</v>
+        <v>692982</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2107190509956647</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1957562612747432</v>
+        <v>0.1959963706185429</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2254503652440696</v>
+        <v>0.2253854285103776</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>446</v>
@@ -2272,19 +2272,19 @@
         <v>457951</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>418363</v>
+        <v>418550</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>498577</v>
+        <v>501105</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1455484716252445</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.13296626095085</v>
+        <v>0.1330256364307998</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1584604416336216</v>
+        <v>0.1592638566971581</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1079</v>
@@ -2293,19 +2293,19 @@
         <v>1105839</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1040527</v>
+        <v>1042279</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1163135</v>
+        <v>1161622</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1777580319693613</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1672595429466598</v>
+        <v>0.1675411256281512</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1869680891988851</v>
+        <v>0.186724847519301</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>1189293</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1132578</v>
+        <v>1135612</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1239872</v>
+        <v>1240340</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3868058524308575</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3683597406440722</v>
+        <v>0.3693467541730023</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4032563076422823</v>
+        <v>0.4034082892580613</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1256</v>
@@ -2343,19 +2343,19 @@
         <v>1289889</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1238322</v>
+        <v>1237479</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1349181</v>
+        <v>1352844</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4099590964396575</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3935698488433137</v>
+        <v>0.3933019295428294</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4288037763959996</v>
+        <v>0.4299679181899757</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2412</v>
@@ -2364,19 +2364,19 @@
         <v>2479182</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2394262</v>
+        <v>2398098</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2558614</v>
+        <v>2560710</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3985159603302678</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3848654785043572</v>
+        <v>0.3854821462894491</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4112842587151714</v>
+        <v>0.4116212807839238</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>980265</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>928317</v>
+        <v>926623</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1027497</v>
+        <v>1026233</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3188215553826181</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3019258205001753</v>
+        <v>0.3013750371042265</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3341832195719734</v>
+        <v>0.3337721146475857</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1221</v>
@@ -2414,19 +2414,19 @@
         <v>1248436</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1189136</v>
+        <v>1189592</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1303169</v>
+        <v>1303759</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3967843715654163</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3779374361524035</v>
+        <v>0.3780821936673224</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4141797753496589</v>
+        <v>0.4143674874768282</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2197</v>
@@ -2435,19 +2435,19 @@
         <v>2228701</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2149012</v>
+        <v>2159024</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2307234</v>
+        <v>2311964</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3582524441727792</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3454428156102979</v>
+        <v>0.3470521680271945</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3708761694874993</v>
+        <v>0.3716365496675854</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>33671</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23372</v>
+        <v>23352</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46308</v>
+        <v>46566</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0328061531653458</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02277233207270291</v>
+        <v>0.02275214055198902</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04511911042726333</v>
+        <v>0.04537102973926595</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -2800,19 +2800,19 @@
         <v>31844</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21732</v>
+        <v>22634</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45036</v>
+        <v>44702</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02883078517896532</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01967593916076453</v>
+        <v>0.02049269649895388</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04077504261556601</v>
+        <v>0.04047285098293206</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -2821,19 +2821,19 @@
         <v>65514</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50857</v>
+        <v>49887</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83668</v>
+        <v>83421</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03074557036600433</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02386710770658359</v>
+        <v>0.02341163510464428</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03926516340753282</v>
+        <v>0.03914920920341534</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>72772</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55930</v>
+        <v>57505</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90511</v>
+        <v>91822</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07090342236110052</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05449455117316309</v>
+        <v>0.05602829543667031</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08818754191771067</v>
+        <v>0.08946455570308272</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -2871,19 +2871,19 @@
         <v>50855</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38024</v>
+        <v>37341</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66629</v>
+        <v>67305</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04604384458800329</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03442678523636857</v>
+        <v>0.03380794967991427</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06032489093678498</v>
+        <v>0.06093699017665924</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>117</v>
@@ -2892,19 +2892,19 @@
         <v>123627</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>103430</v>
+        <v>103764</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>148349</v>
+        <v>148020</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05801776786731973</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04853933724561656</v>
+        <v>0.04869600878970423</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.069619775222572</v>
+        <v>0.06946525266668821</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>115262</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>94737</v>
+        <v>95156</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>136517</v>
+        <v>136906</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1123031510111148</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09230471613559137</v>
+        <v>0.09271346382620237</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1330124928149521</v>
+        <v>0.1333913131507263</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>114</v>
@@ -2942,19 +2942,19 @@
         <v>123483</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>102261</v>
+        <v>102907</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>145792</v>
+        <v>147035</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1118006010303049</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09258571492801286</v>
+        <v>0.09317119326609312</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1319981301608479</v>
+        <v>0.1331237102089917</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>225</v>
@@ -2963,19 +2963,19 @@
         <v>238746</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>207620</v>
+        <v>211625</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>267519</v>
+        <v>270249</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1120426604477722</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09743550000268646</v>
+        <v>0.09931515582599006</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1255461789641625</v>
+        <v>0.1268271659156128</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>804644</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>778877</v>
+        <v>777040</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>833990</v>
+        <v>831322</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7839872734624389</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7588816411179031</v>
+        <v>0.7570922491167958</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8125800128632488</v>
+        <v>0.8099806559525611</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>822</v>
@@ -3013,19 +3013,19 @@
         <v>898315</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>871899</v>
+        <v>869827</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>925486</v>
+        <v>924091</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8133247692027264</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.789408224573977</v>
+        <v>0.7875325042090029</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8379256973824365</v>
+        <v>0.8366619201394887</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1570</v>
@@ -3034,19 +3034,19 @@
         <v>1702959</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1660901</v>
+        <v>1663284</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1735523</v>
+        <v>1740368</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7991940013189037</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7794565580840654</v>
+        <v>0.7805748504383312</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8144762317837775</v>
+        <v>0.8167502443860147</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>17628</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10588</v>
+        <v>10596</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>26748</v>
+        <v>26465</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01849891904708792</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0111107928795774</v>
+        <v>0.01111949413680225</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02806964925038325</v>
+        <v>0.02777210460813091</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -3159,19 +3159,19 @@
         <v>12238</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6523</v>
+        <v>6025</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22386</v>
+        <v>21530</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0114810286490499</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006119588852852768</v>
+        <v>0.005652078172031252</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02100087119600528</v>
+        <v>0.0201974951781783</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>29</v>
@@ -3180,19 +3180,19 @@
         <v>29866</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20277</v>
+        <v>20830</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>41734</v>
+        <v>43621</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0147934960362412</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01004350092846405</v>
+        <v>0.01031757951256004</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0206715551149765</v>
+        <v>0.02160648921147577</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>32004</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21657</v>
+        <v>22506</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45143</v>
+        <v>45981</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03358463416799037</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0227268791930607</v>
+        <v>0.02361815884748113</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04737353399630674</v>
+        <v>0.04825278960119816</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -3230,19 +3230,19 @@
         <v>45070</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33729</v>
+        <v>32501</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60591</v>
+        <v>61628</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04228078199612586</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03164145269483275</v>
+        <v>0.03048987676529342</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0568410560418216</v>
+        <v>0.05781457723819602</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -3251,19 +3251,19 @@
         <v>77074</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61246</v>
+        <v>62369</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96504</v>
+        <v>96646</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0381761715731779</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0303366161221777</v>
+        <v>0.0308927356260107</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04780062338987722</v>
+        <v>0.04787070108823697</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>147769</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>126864</v>
+        <v>126908</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>170018</v>
+        <v>172111</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1550692861518412</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1331310684897196</v>
+        <v>0.1331772746734705</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1784175323797581</v>
+        <v>0.1806136977026268</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>127</v>
@@ -3301,19 +3301,19 @@
         <v>135647</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>113572</v>
+        <v>113867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>159478</v>
+        <v>159702</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1272521197053263</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1065437095941503</v>
+        <v>0.106820528792477</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1496086394696302</v>
+        <v>0.1498184368788582</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>270</v>
@@ -3322,19 +3322,19 @@
         <v>283416</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>250900</v>
+        <v>253318</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>316860</v>
+        <v>318088</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1403819139072866</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.12427595932224</v>
+        <v>0.1254736910250298</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1569472475702348</v>
+        <v>0.1575558770569924</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>755523</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>732236</v>
+        <v>729665</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>780996</v>
+        <v>779245</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7928471606330806</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7684092287987995</v>
+        <v>0.7657118249323914</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8195782050237479</v>
+        <v>0.8177408122538146</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>811</v>
@@ -3372,19 +3372,19 @@
         <v>873013</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>845644</v>
+        <v>845007</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>896778</v>
+        <v>897149</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8189860696494979</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7933110561623672</v>
+        <v>0.7927136213304029</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8412804452707813</v>
+        <v>0.8416284956537146</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1522</v>
@@ -3393,19 +3393,19 @@
         <v>1628536</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1590744</v>
+        <v>1588128</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1666531</v>
+        <v>1664440</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8066484184832943</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7879294173935627</v>
+        <v>0.7866332841372553</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.825468067206948</v>
+        <v>0.824432361487025</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>11708</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6317</v>
+        <v>6220</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20287</v>
+        <v>20619</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01361659791072996</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007346953386950663</v>
+        <v>0.007233222435756698</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02359375196377292</v>
+        <v>0.02397984354260597</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -3518,19 +3518,19 @@
         <v>3928</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>938</v>
+        <v>978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9663</v>
+        <v>9661</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004739897515199956</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001131499736920792</v>
+        <v>0.001179679937573003</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0116603864917515</v>
+        <v>0.01165784874348519</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -3539,19 +3539,19 @@
         <v>15636</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9326</v>
+        <v>8305</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25032</v>
+        <v>24752</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.009260086232754563</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005523095440066406</v>
+        <v>0.004918383642817857</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01482413691349196</v>
+        <v>0.01465849406219577</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>28655</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19076</v>
+        <v>19311</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>41712</v>
+        <v>43165</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03332561431110827</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02218505937025975</v>
+        <v>0.02245858307489784</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04851048244384783</v>
+        <v>0.05020033856589166</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>26</v>
@@ -3589,19 +3589,19 @@
         <v>27983</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>19093</v>
+        <v>19008</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>40217</v>
+        <v>41026</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0337671992100906</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02303878267816781</v>
+        <v>0.02293709077611483</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04852924572827229</v>
+        <v>0.04950538989969821</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>53</v>
@@ -3610,19 +3610,19 @@
         <v>56639</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>42394</v>
+        <v>42126</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>72956</v>
+        <v>70946</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03354233557954298</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02510640265363158</v>
+        <v>0.02494757410004174</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04320597657216477</v>
+        <v>0.04201543031393409</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>132157</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>113217</v>
+        <v>112327</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>154610</v>
+        <v>157741</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1536975070271001</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1316697683470948</v>
+        <v>0.1306352327898135</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1798090755391276</v>
+        <v>0.1834514722691947</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -3660,19 +3660,19 @@
         <v>79150</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>64116</v>
+        <v>62787</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>96830</v>
+        <v>98156</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09550917326661207</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07736721180652509</v>
+        <v>0.0757641164647772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1168436541092207</v>
+        <v>0.1184437640971162</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>206</v>
@@ -3681,19 +3681,19 @@
         <v>211308</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>180991</v>
+        <v>185825</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>237320</v>
+        <v>240065</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.125139806051054</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1071855745621375</v>
+        <v>0.1100485142658143</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1405448896148572</v>
+        <v>0.1421703944752161</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>687333</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>663151</v>
+        <v>661491</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>709850</v>
+        <v>712953</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7993602807510616</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7712366831752548</v>
+        <v>0.7693060442456857</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8255473773471089</v>
+        <v>0.8291560327520281</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>670</v>
@@ -3731,19 +3731,19 @@
         <v>717656</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>699649</v>
+        <v>694738</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>737205</v>
+        <v>736313</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8659837300080974</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8442548169810457</v>
+        <v>0.8383289287847627</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8895726926543983</v>
+        <v>0.8884964763624337</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1311</v>
@@ -3752,19 +3752,19 @@
         <v>1404989</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1372612</v>
+        <v>1371796</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1437160</v>
+        <v>1436760</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8320577721366484</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.812883245315338</v>
+        <v>0.8123999050091331</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8511094448008288</v>
+        <v>0.850872702654211</v>
       </c>
     </row>
     <row r="18">
@@ -3859,16 +3859,16 @@
         <v>1022</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9781</v>
+        <v>9393</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008300084013321274</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002159877903041322</v>
+        <v>0.002158905520240608</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02066703791514289</v>
+        <v>0.0198485664084496</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -3877,19 +3877,19 @@
         <v>7171</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3167</v>
+        <v>2944</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14560</v>
+        <v>13802</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01727481499086916</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007628478249738262</v>
+        <v>0.007091674046711584</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0350743163238472</v>
+        <v>0.03324714076674364</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -3898,19 +3898,19 @@
         <v>11099</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5858</v>
+        <v>5790</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19298</v>
+        <v>18810</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01249381871971102</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006594559166940791</v>
+        <v>0.006517234553902168</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02172303338417388</v>
+        <v>0.02117315229515404</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>15161</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8818</v>
+        <v>8706</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25464</v>
+        <v>25439</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03203528888828648</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01863212993813465</v>
+        <v>0.01839624000080696</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05380693486954198</v>
+        <v>0.05375327169047107</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -3948,19 +3948,19 @@
         <v>11701</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6313</v>
+        <v>5973</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21291</v>
+        <v>20998</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0281877907472953</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01520677611862568</v>
+        <v>0.01438845029753464</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05128945534243453</v>
+        <v>0.05058225143008573</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -3969,19 +3969,19 @@
         <v>26862</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17425</v>
+        <v>17545</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>39147</v>
+        <v>39878</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03023742034749003</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0196144305315462</v>
+        <v>0.01974918200912981</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04406552020638786</v>
+        <v>0.04488835023399739</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>44037</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>32146</v>
+        <v>33544</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>59023</v>
+        <v>59393</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09305060553555279</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.067925275060846</v>
+        <v>0.07087841267449016</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1247171857977849</v>
+        <v>0.1254979258868198</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -4019,19 +4019,19 @@
         <v>29189</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>20078</v>
+        <v>19942</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>42592</v>
+        <v>42148</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07031296969754242</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04836507804958076</v>
+        <v>0.04803903094131833</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1026007636083025</v>
+        <v>0.1015309345633434</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>69</v>
@@ -4040,19 +4040,19 @@
         <v>73225</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>56626</v>
+        <v>56414</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>91395</v>
+        <v>90494</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08242570627186825</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06374076999797106</v>
+        <v>0.06350190361831137</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1028785255289304</v>
+        <v>0.101864210029888</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>410129</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>393506</v>
+        <v>393045</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>423728</v>
+        <v>423631</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8666140215628395</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8314875966565327</v>
+        <v>0.8305143160448824</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8953481771802833</v>
+        <v>0.8951424626130429</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>332</v>
@@ -4090,19 +4090,19 @@
         <v>367063</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>352334</v>
+        <v>351242</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>379512</v>
+        <v>378473</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8842244245642932</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8487441455053668</v>
+        <v>0.8461145031390315</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9142142438001609</v>
+        <v>0.9117106808175378</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>703</v>
@@ -4111,19 +4111,19 @@
         <v>777191</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>754624</v>
+        <v>756018</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>796365</v>
+        <v>797715</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8748430546609307</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8494396936714629</v>
+        <v>0.8510089834667907</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8964260597943753</v>
+        <v>0.8979458049909849</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>66935</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>51806</v>
+        <v>51300</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>84539</v>
+        <v>83674</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02020750079098588</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0156400919362993</v>
+        <v>0.01548747933224656</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02552207011379803</v>
+        <v>0.02526084795599226</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>53</v>
@@ -4236,19 +4236,19 @@
         <v>55181</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>41796</v>
+        <v>40927</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>71748</v>
+        <v>71091</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01616174279875902</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01224150904895708</v>
+        <v>0.01198703961721534</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02101389615097247</v>
+        <v>0.02082148830825844</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>119</v>
@@ -4257,19 +4257,19 @@
         <v>122116</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>103117</v>
+        <v>103015</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>145570</v>
+        <v>144400</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01815396973919893</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01532946804868423</v>
+        <v>0.01531431393532041</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0216406190834852</v>
+        <v>0.02146675158302474</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>148591</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>124379</v>
+        <v>125413</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>172307</v>
+        <v>173502</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04485933902297423</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03754979134227275</v>
+        <v>0.03786180255948122</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05201920494405635</v>
+        <v>0.05237980133311468</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>129</v>
@@ -4307,19 +4307,19 @@
         <v>135610</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>114229</v>
+        <v>113064</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>160922</v>
+        <v>158838</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03971821175600571</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03345596815259654</v>
+        <v>0.03311463537620541</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04713158336633199</v>
+        <v>0.0465212626106748</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>270</v>
@@ -4328,19 +4328,19 @@
         <v>284201</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>251063</v>
+        <v>252228</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>317031</v>
+        <v>320255</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04224982443900936</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03732344961665825</v>
+        <v>0.03749657348999543</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04713026715553687</v>
+        <v>0.04760963233248013</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>439225</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>397247</v>
+        <v>402195</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>476793</v>
+        <v>479609</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1326011234480295</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1199280549410376</v>
+        <v>0.1214217360827575</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1439427735431572</v>
+        <v>0.1447930174565265</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>345</v>
@@ -4378,19 +4378,19 @@
         <v>367469</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>325454</v>
+        <v>332263</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>403438</v>
+        <v>404810</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1076262058111292</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09532066444673197</v>
+        <v>0.09731505138654838</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1181608967897775</v>
+        <v>0.1185629105083152</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>770</v>
@@ -4399,19 +4399,19 @@
         <v>806694</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>750470</v>
+        <v>759014</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>865518</v>
+        <v>864951</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.119924446053649</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1115661041904068</v>
+        <v>0.1128362401401238</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1286692883655032</v>
+        <v>0.1285850527926815</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>2657629</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2611971</v>
+        <v>2609827</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2706792</v>
+        <v>2699018</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8023320367380103</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7885482293012436</v>
+        <v>0.7879007439351718</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8171744202713388</v>
+        <v>0.814827331405791</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2635</v>
@@ -4449,19 +4449,19 @@
         <v>2856047</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2814417</v>
+        <v>2810549</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2903616</v>
+        <v>2898911</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8364938396341061</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8243010897322615</v>
+        <v>0.8231683357367785</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.850426237952417</v>
+        <v>0.8490481253416364</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5106</v>
@@ -4470,19 +4470,19 @@
         <v>5513675</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5449949</v>
+        <v>5446632</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5575870</v>
+        <v>5576274</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8196717597681427</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8101981375822247</v>
+        <v>0.8097049252139806</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8289177216022767</v>
+        <v>0.8289778022508715</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>53719</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40864</v>
+        <v>39273</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69939</v>
+        <v>68989</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04814235997904019</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03662192647708217</v>
+        <v>0.03519592317090483</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06267834725069607</v>
+        <v>0.06182657058858499</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -4835,19 +4835,19 @@
         <v>44699</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31484</v>
+        <v>32471</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58709</v>
+        <v>60305</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03603146395200311</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02537841906457705</v>
+        <v>0.02617431166045464</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04732488987730935</v>
+        <v>0.04861064204803723</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -4856,19 +4856,19 @@
         <v>98419</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79372</v>
+        <v>81755</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>120328</v>
+        <v>119216</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04176641392244523</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03368350681597278</v>
+        <v>0.03469489023141838</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05106410612964338</v>
+        <v>0.0505923138141646</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>110248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>92097</v>
+        <v>92163</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>131029</v>
+        <v>132613</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09880204862280011</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08253544835695641</v>
+        <v>0.08259464337613348</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1174261496951883</v>
+        <v>0.1188457917434025</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>109</v>
@@ -4906,19 +4906,19 @@
         <v>114357</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94867</v>
+        <v>93260</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>137615</v>
+        <v>135869</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09218142113031585</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07647077747593146</v>
+        <v>0.07517574781141717</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1109293841975263</v>
+        <v>0.1095221404792368</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>211</v>
@@ -4927,19 +4927,19 @@
         <v>224604</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>198369</v>
+        <v>199083</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>253596</v>
+        <v>253692</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09531652916506132</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08418294399212831</v>
+        <v>0.08448583529345773</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1076199524990966</v>
+        <v>0.107660744243231</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>217869</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>189974</v>
+        <v>187274</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>246707</v>
+        <v>244717</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1952500418807913</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1702516063987207</v>
+        <v>0.1678318118458384</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2210942649928843</v>
+        <v>0.2193114562396477</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>166</v>
@@ -4977,19 +4977,19 @@
         <v>174460</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>151345</v>
+        <v>150250</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>201758</v>
+        <v>199384</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1406300881096547</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1219971473969508</v>
+        <v>0.1211148339271034</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1626346048207728</v>
+        <v>0.1607203241237121</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>364</v>
@@ -4998,19 +4998,19 @@
         <v>392329</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>358512</v>
+        <v>356617</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>429839</v>
+        <v>432796</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1664946237778686</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1521433726415116</v>
+        <v>0.1513395080030357</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1824127821586183</v>
+        <v>0.1836677451948737</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>734008</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>701800</v>
+        <v>700163</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>765930</v>
+        <v>765382</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6578055495173684</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6289406803540506</v>
+        <v>0.6274741286541369</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6864133369307196</v>
+        <v>0.6859224362294419</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>853</v>
@@ -5048,19 +5048,19 @@
         <v>907046</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>874621</v>
+        <v>872469</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>938048</v>
+        <v>938967</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7311570268080264</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7050198136965272</v>
+        <v>0.7032850741904603</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7561477069863203</v>
+        <v>0.7568886502672684</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1560</v>
@@ -5069,19 +5069,19 @@
         <v>1641054</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1594906</v>
+        <v>1600308</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1683415</v>
+        <v>1689199</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6964224331346249</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.676838194004389</v>
+        <v>0.6791306619018028</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7143992296633107</v>
+        <v>0.7168540565928044</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>14725</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9128</v>
+        <v>8267</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24188</v>
+        <v>24366</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01660666208326764</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.010294377886107</v>
+        <v>0.009323012734118575</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02727820028248042</v>
+        <v>0.02747924462547522</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -5194,19 +5194,19 @@
         <v>19783</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12466</v>
+        <v>11736</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>30777</v>
+        <v>30155</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02033468283462138</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0128142087841767</v>
+        <v>0.01206327083266176</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03163572130730727</v>
+        <v>0.03099691127629878</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>33</v>
@@ -5215,19 +5215,19 @@
         <v>34508</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>24246</v>
+        <v>24043</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>47923</v>
+        <v>46992</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0185570066402532</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01303842953510407</v>
+        <v>0.01292907004236016</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02577079898545007</v>
+        <v>0.02527036334367781</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>49746</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37519</v>
+        <v>37040</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65846</v>
+        <v>64238</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05610104845632279</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04231242977562224</v>
+        <v>0.04177186427142494</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07425796774361844</v>
+        <v>0.07244433427244971</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -5265,19 +5265,19 @@
         <v>41284</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30436</v>
+        <v>30110</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56527</v>
+        <v>57361</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04243567585989191</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03128494942113642</v>
+        <v>0.03095007766217209</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05810404958806191</v>
+        <v>0.05896210156117915</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>87</v>
@@ -5286,19 +5286,19 @@
         <v>91030</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73207</v>
+        <v>74893</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109206</v>
+        <v>111306</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04895189697883957</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03936774222276709</v>
+        <v>0.04027415117556792</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05872630515809864</v>
+        <v>0.05985590422313145</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>169429</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>145648</v>
+        <v>146973</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>193344</v>
+        <v>193129</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1910737900015079</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1642544731904896</v>
+        <v>0.16574926184748</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2180432298831793</v>
+        <v>0.217800757477486</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>159</v>
@@ -5336,19 +5336,19 @@
         <v>166771</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>143932</v>
+        <v>142710</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>191311</v>
+        <v>189283</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1714251091405811</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1479488366868887</v>
+        <v>0.1466928821784223</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1966497247045604</v>
+        <v>0.1945653777690795</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>319</v>
@@ -5357,19 +5357,19 @@
         <v>336200</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>305594</v>
+        <v>302888</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>371510</v>
+        <v>368557</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1807944218528356</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1643357317879502</v>
+        <v>0.1628805935525588</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1997827276562221</v>
+        <v>0.1981945160634185</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>652820</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>625045</v>
+        <v>625207</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>679039</v>
+        <v>677028</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7362184994589017</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7048949341323834</v>
+        <v>0.7050776694947605</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7657861552389021</v>
+        <v>0.7635191313421563</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>701</v>
@@ -5407,19 +5407,19 @@
         <v>745013</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>713995</v>
+        <v>718484</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>770805</v>
+        <v>772500</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7658045321649056</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7339212074104253</v>
+        <v>0.7385349605358164</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7923165908581025</v>
+        <v>0.7940583045136708</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1341</v>
@@ -5428,19 +5428,19 @@
         <v>1397833</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1356069</v>
+        <v>1356851</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1430466</v>
+        <v>1432570</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7516966745280717</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7292373442248716</v>
+        <v>0.7296579826234826</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7692450562357822</v>
+        <v>0.7703765569528453</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>9806</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4280</v>
+        <v>4207</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19568</v>
+        <v>19597</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01219514958379034</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005322773478338254</v>
+        <v>0.005232311774809643</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02433422164416607</v>
+        <v>0.02437103865607708</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -5553,19 +5553,19 @@
         <v>7526</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2849</v>
+        <v>3128</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14291</v>
+        <v>15680</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01003783149423996</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003799713153925889</v>
+        <v>0.004171640151314317</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01906094428814546</v>
+        <v>0.02091429130872849</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -5574,19 +5574,19 @@
         <v>17332</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10220</v>
+        <v>10006</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29547</v>
+        <v>27870</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01115425236744256</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006577127528246168</v>
+        <v>0.006439533428267547</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01901511730311952</v>
+        <v>0.0179358024380743</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>33704</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22869</v>
+        <v>23109</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>47963</v>
+        <v>48307</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04191305826120904</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02843957872458782</v>
+        <v>0.02873793314818312</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05964638659043687</v>
+        <v>0.06007310666110648</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>21</v>
@@ -5624,19 +5624,19 @@
         <v>22473</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14551</v>
+        <v>14262</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>33877</v>
+        <v>32813</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02997508397186544</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01940809785769526</v>
+        <v>0.0190231193783965</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04518492168794962</v>
+        <v>0.04376647556153436</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>51</v>
@@ -5645,19 +5645,19 @@
         <v>56177</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>41341</v>
+        <v>41767</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>71866</v>
+        <v>73114</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03615303415220111</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02660556486791149</v>
+        <v>0.02687944973318515</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04625003707213356</v>
+        <v>0.04705313958192878</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>137097</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>117395</v>
+        <v>116500</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>160282</v>
+        <v>158390</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1704912404135715</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1459906903571085</v>
+        <v>0.1448771754058221</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1993234662421962</v>
+        <v>0.1969709585223161</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>130</v>
@@ -5695,19 +5695,19 @@
         <v>133993</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>113297</v>
+        <v>114283</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>154351</v>
+        <v>156592</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1787210447389806</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1511172068514854</v>
+        <v>0.1524324551974893</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2058746542755805</v>
+        <v>0.2088643863994309</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>258</v>
@@ -5716,19 +5716,19 @@
         <v>271090</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>242199</v>
+        <v>243460</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>301912</v>
+        <v>304494</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1744620875755636</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1558691249135969</v>
+        <v>0.1566807036819621</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1942981080445413</v>
+        <v>0.195959447319595</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>623522</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>596080</v>
+        <v>598169</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>645947</v>
+        <v>645903</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7754005517414291</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7412741339416293</v>
+        <v>0.7438724720449523</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8032880770127896</v>
+        <v>0.8032332114618715</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>549</v>
@@ -5766,19 +5766,19 @@
         <v>585740</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>564718</v>
+        <v>562612</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>609481</v>
+        <v>608074</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7812660397949139</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7532271066457034</v>
+        <v>0.7504169972767405</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8129315330681075</v>
+        <v>0.8110556142177225</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1151</v>
@@ -5787,19 +5787,19 @@
         <v>1209262</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1176035</v>
+        <v>1172786</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1241926</v>
+        <v>1239982</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7782306259047927</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7568467981983426</v>
+        <v>0.7547558925908509</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7992519842737912</v>
+        <v>0.7980008730866517</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>5315</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2061</v>
+        <v>2053</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11677</v>
+        <v>12313</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01085087222645146</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004206991229384918</v>
+        <v>0.00419049956643203</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02383779523193843</v>
+        <v>0.02513645794340228</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -5912,19 +5912,19 @@
         <v>11937</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6391</v>
+        <v>6318</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20574</v>
+        <v>21180</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02552392573624111</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01366526486153643</v>
+        <v>0.01350987759449757</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04398974306321229</v>
+        <v>0.04528723317817049</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -5933,19 +5933,19 @@
         <v>17253</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10293</v>
+        <v>9956</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28020</v>
+        <v>27508</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0180176393420944</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01074997995492283</v>
+        <v>0.01039771934685834</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0292627615267985</v>
+        <v>0.02872757593322527</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>26673</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17125</v>
+        <v>17881</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>38338</v>
+        <v>39301</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05445277797339748</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03496036146417603</v>
+        <v>0.03650368212916549</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07826554921784386</v>
+        <v>0.08023131769775162</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>23</v>
@@ -5983,19 +5983,19 @@
         <v>23203</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15130</v>
+        <v>15422</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33899</v>
+        <v>33789</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04961139149295764</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03234971782842336</v>
+        <v>0.03297452757093997</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07248295882959888</v>
+        <v>0.07224726176858445</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>48</v>
@@ -6004,19 +6004,19 @@
         <v>49876</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>37611</v>
+        <v>37919</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>65580</v>
+        <v>64540</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05208809707047669</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03927886710176089</v>
+        <v>0.03960053812039298</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06848866090787527</v>
+        <v>0.06740213440303984</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>74716</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>60871</v>
+        <v>60217</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>93392</v>
+        <v>92702</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1525304038057045</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1242664986025169</v>
+        <v>0.1229294693797288</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.190655633858105</v>
+        <v>0.1892481301796781</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>58</v>
@@ -6054,19 +6054,19 @@
         <v>61011</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>47540</v>
+        <v>46235</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>78060</v>
+        <v>76992</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1304521174521976</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1016480154628332</v>
+        <v>0.09885928015304923</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1669049640771914</v>
+        <v>0.1646212449903481</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>130</v>
@@ -6075,19 +6075,19 @@
         <v>135727</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>114385</v>
+        <v>115812</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>159809</v>
+        <v>159221</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1417466949817373</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1194575687643778</v>
+        <v>0.1209476112493371</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1668959898456764</v>
+        <v>0.1662822773404544</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>383141</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>363173</v>
+        <v>364034</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>400868</v>
+        <v>399479</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7821659459944467</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7414018094019256</v>
+        <v>0.7431592876696123</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8183542676810689</v>
+        <v>0.8155187111600249</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>344</v>
@@ -6125,19 +6125,19 @@
         <v>371538</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>354228</v>
+        <v>350445</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>388529</v>
+        <v>387980</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7944125653186036</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7573998814479893</v>
+        <v>0.7493129746081828</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8307430902864642</v>
+        <v>0.8295680236748674</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>698</v>
@@ -6146,19 +6146,19 @@
         <v>754679</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>727581</v>
+        <v>725864</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>779033</v>
+        <v>778270</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7881475686056916</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7598481955636706</v>
+        <v>0.758055145718702</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8135813379408163</v>
+        <v>0.8127844188469686</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>83567</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>66092</v>
+        <v>66296</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>104337</v>
+        <v>105573</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02534978104758791</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02004893049735738</v>
+        <v>0.02011072217171137</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0316505408609167</v>
+        <v>0.03202545301074637</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>80</v>
@@ -6271,19 +6271,19 @@
         <v>83945</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>67061</v>
+        <v>65066</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>103422</v>
+        <v>102134</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02446776388964775</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01954652387696839</v>
+        <v>0.01896521048445912</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03014497752619089</v>
+        <v>0.02976933252304423</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>155</v>
@@ -6292,19 +6292,19 @@
         <v>167511</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>143659</v>
+        <v>143058</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>195927</v>
+        <v>194769</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02489996901397568</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02135434882935093</v>
+        <v>0.02126506172627492</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02912379200199028</v>
+        <v>0.02895167732136529</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>220371</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>190903</v>
+        <v>190651</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>252503</v>
+        <v>250730</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06684906748310539</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05791021212700622</v>
+        <v>0.05783377460370141</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0765964886135993</v>
+        <v>0.07605848732510745</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>193</v>
@@ -6342,19 +6342,19 @@
         <v>201316</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>174144</v>
+        <v>173989</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>232188</v>
+        <v>231339</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05867855170195695</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05075864398920227</v>
+        <v>0.05071346246250926</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06767699778569496</v>
+        <v>0.06742926383589221</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>397</v>
@@ -6363,19 +6363,19 @@
         <v>421687</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>381946</v>
+        <v>383886</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>463580</v>
+        <v>461000</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06268225929111715</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05677491371100946</v>
+        <v>0.05706321270210483</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06890943042547901</v>
+        <v>0.06852604545393812</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>599111</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>555337</v>
+        <v>553234</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>647653</v>
+        <v>645107</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1817393667971234</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1684605023426391</v>
+        <v>0.167822489139261</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1964644205028588</v>
+        <v>0.1956920449155129</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>513</v>
@@ -6413,19 +6413,19 @@
         <v>536235</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>495226</v>
+        <v>493686</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>578111</v>
+        <v>584844</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1562988180134604</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1443456250080353</v>
+        <v>0.1438969409704278</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1685045142007372</v>
+        <v>0.170467051725281</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1071</v>
@@ -6434,19 +6434,19 @@
         <v>1135346</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1075364</v>
+        <v>1074368</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1204129</v>
+        <v>1202922</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1687651690940815</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1598490067505755</v>
+        <v>0.1597010056262826</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1789894145379967</v>
+        <v>0.178810093424856</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>2393492</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2336393</v>
+        <v>2344006</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2440144</v>
+        <v>2449045</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7260617846721833</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7087406393000707</v>
+        <v>0.7110501538614847</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.74021338811384</v>
+        <v>0.742913680794678</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2447</v>
@@ -6484,19 +6484,19 @@
         <v>2609337</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2556268</v>
+        <v>2556343</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2659557</v>
+        <v>2661961</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.760554866394935</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7450865605203023</v>
+        <v>0.7451085446702647</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7751928340095936</v>
+        <v>0.7758934991371929</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4750</v>
@@ -6505,19 +6505,19 @@
         <v>5002829</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4928575</v>
+        <v>4925486</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5075505</v>
+        <v>5075707</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7436526026008257</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7326150484616096</v>
+        <v>0.7321557645631819</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7544555471378468</v>
+        <v>0.7544856753842721</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>12308</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7157</v>
+        <v>6830</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20702</v>
+        <v>20628</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02479663411855148</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01441852949171176</v>
+        <v>0.01376017306344914</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04170720378377647</v>
+        <v>0.04155789802275145</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -6870,19 +6870,19 @@
         <v>13630</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8245</v>
+        <v>8441</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21955</v>
+        <v>21344</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02203421749890668</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01332914472881646</v>
+        <v>0.01364574546369476</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03549305442802864</v>
+        <v>0.03450527183440812</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -6891,19 +6891,19 @@
         <v>25938</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18277</v>
+        <v>17830</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38094</v>
+        <v>37286</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02326404039162525</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01639304401616671</v>
+        <v>0.01599163829636516</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03416724167833814</v>
+        <v>0.03344247088348253</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>30228</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20710</v>
+        <v>20485</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41450</v>
+        <v>43461</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06089959213479341</v>
+        <v>0.0608995921347934</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04172242373348213</v>
+        <v>0.0412690738060289</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08350790482572769</v>
+        <v>0.08755788620905788</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -6941,7 +6941,7 @@
         <v>17084</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11754</v>
+        <v>11481</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>24523</v>
@@ -6950,10 +6950,10 @@
         <v>0.0276187961340094</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01900255655280901</v>
+        <v>0.01856135788503566</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03964529962600087</v>
+        <v>0.03964479955183858</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>57</v>
@@ -6962,19 +6962,19 @@
         <v>47313</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>35724</v>
+        <v>35486</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>61539</v>
+        <v>61526</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04243534643948929</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03204099007987781</v>
+        <v>0.0318276405454754</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05519489591820415</v>
+        <v>0.05518316095420426</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>56366</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41113</v>
+        <v>40713</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>74823</v>
+        <v>72707</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1135563487328537</v>
+        <v>0.1135563487328536</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08282702331760471</v>
+        <v>0.08202213148114035</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1507424817901122</v>
+        <v>0.14647862126919</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>70</v>
@@ -7012,19 +7012,19 @@
         <v>55657</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>42831</v>
+        <v>43346</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>71037</v>
+        <v>71344</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0899779859535514</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06924271881654334</v>
+        <v>0.0700748325649049</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1148412305428913</v>
+        <v>0.1153377737170234</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>117</v>
@@ -7033,19 +7033,19 @@
         <v>112023</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>91121</v>
+        <v>92512</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>135047</v>
+        <v>137339</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1004750305023704</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08172779902601582</v>
+        <v>0.08297516178800968</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1211253014827605</v>
+        <v>0.1231810298002036</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>397464</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>377627</v>
+        <v>376697</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>415463</v>
+        <v>415932</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8007474250138015</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7607831497642218</v>
+        <v>0.7589093189475195</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8370088282976907</v>
+        <v>0.8379536713850393</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>739</v>
@@ -7083,19 +7083,19 @@
         <v>532196</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>514661</v>
+        <v>515703</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>547271</v>
+        <v>546713</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8603690004135326</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8320212441325886</v>
+        <v>0.8337066008871146</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8847395270469105</v>
+        <v>0.8838383059621672</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1102</v>
@@ -7104,19 +7104,19 @@
         <v>929660</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>900963</v>
+        <v>900490</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>954723</v>
+        <v>953485</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8338255826665151</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8080874057549869</v>
+        <v>0.8076632916552469</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8563056218844529</v>
+        <v>0.8551950801008954</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>6996</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2239</v>
+        <v>2231</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21520</v>
+        <v>23944</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.007295088093128069</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002334553361182873</v>
+        <v>0.002326551193956241</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02244120925286347</v>
+        <v>0.02496891426955566</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -7229,19 +7229,19 @@
         <v>12802</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6247</v>
+        <v>6244</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23859</v>
+        <v>25204</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01152396453996143</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005622867760961661</v>
+        <v>0.005620514176222728</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02147608866029367</v>
+        <v>0.02268706799061133</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -7250,19 +7250,19 @@
         <v>19798</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11553</v>
+        <v>11049</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>37113</v>
+        <v>36168</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.009564783967225442</v>
+        <v>0.009564783967225446</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005581241531968295</v>
+        <v>0.005337949690015544</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01792982369348773</v>
+        <v>0.01747331105749422</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>52338</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36860</v>
+        <v>36918</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74184</v>
+        <v>74128</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05457876032530914</v>
+        <v>0.05457876032530916</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03843792613212543</v>
+        <v>0.03849826812699014</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0773600240904781</v>
+        <v>0.07730159324079515</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -7300,19 +7300,19 @@
         <v>37203</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27511</v>
+        <v>27534</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48296</v>
+        <v>48560</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03348821731245455</v>
+        <v>0.03348821731245454</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02476365563870456</v>
+        <v>0.02478441816242584</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04347319186781889</v>
+        <v>0.04371058586462496</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>92</v>
@@ -7321,19 +7321,19 @@
         <v>89541</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>71511</v>
+        <v>71466</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>111714</v>
+        <v>113925</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04325917720185459</v>
+        <v>0.04325917720185461</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03454832861761542</v>
+        <v>0.03452665193215169</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05397142855109813</v>
+        <v>0.05503919278326422</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>106082</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>81970</v>
+        <v>84243</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>130694</v>
+        <v>127721</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1106236821080467</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08547892029892691</v>
+        <v>0.08784888092733134</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1362887487698347</v>
+        <v>0.1331890208954711</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>184</v>
@@ -7371,19 +7371,19 @@
         <v>135135</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>115792</v>
+        <v>116265</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>155686</v>
+        <v>157187</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1216407775862581</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1042291884633557</v>
+        <v>0.1046548100890925</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.140139752087428</v>
+        <v>0.1414905625693611</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>272</v>
@@ -7392,19 +7392,19 @@
         <v>241217</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>215041</v>
+        <v>212692</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>279470</v>
+        <v>272978</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1165367080537816</v>
+        <v>0.1165367080537817</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1038904374340459</v>
+        <v>0.1027555896172228</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.13501732305962</v>
+        <v>0.1318808397033128</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>793532</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>762685</v>
+        <v>764085</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>820649</v>
+        <v>819864</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8275024694735162</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7953347283120442</v>
+        <v>0.7967946422348958</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8557808621125641</v>
+        <v>0.8549621336087914</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1354</v>
@@ -7442,19 +7442,19 @@
         <v>925794</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>902637</v>
+        <v>902957</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>946747</v>
+        <v>949811</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8333470405613261</v>
+        <v>0.8333470405613259</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8125031815817725</v>
+        <v>0.8127907477798562</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8522085787066249</v>
+        <v>0.8549664568394025</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2130</v>
@@ -7463,19 +7463,19 @@
         <v>1719325</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1675459</v>
+        <v>1682122</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1754213</v>
+        <v>1753431</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8306393307771383</v>
+        <v>0.8306393307771384</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.809446429314559</v>
+        <v>0.8126657547418467</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8474939885071956</v>
+        <v>0.8471164346155616</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>8105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3925</v>
+        <v>4366</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14670</v>
+        <v>15062</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.00775424627175443</v>
+        <v>0.007754246271754431</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003754845291159227</v>
+        <v>0.004177257356911693</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01403474866473278</v>
+        <v>0.01440968486085266</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -7588,19 +7588,19 @@
         <v>3268</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7302</v>
+        <v>7272</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003128766095163524</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001157992288848481</v>
+        <v>0.001155303576348964</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.006989977407269028</v>
+        <v>0.006961157518283405</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -7609,19 +7609,19 @@
         <v>11374</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6334</v>
+        <v>7037</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18682</v>
+        <v>19168</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005442287057397905</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003030566549896589</v>
+        <v>0.003367088379587491</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.008939473992764338</v>
+        <v>0.009171836018926526</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>50658</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>36956</v>
+        <v>38074</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>69430</v>
+        <v>67832</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0484623690428052</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03535411767896981</v>
+        <v>0.03642444875569853</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06642148344212125</v>
+        <v>0.06489267270063678</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>81</v>
@@ -7659,19 +7659,19 @@
         <v>59191</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>47104</v>
+        <v>46238</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>74481</v>
+        <v>73446</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.05666437620776395</v>
+        <v>0.05666437620776394</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04509322133381825</v>
+        <v>0.04426448255366386</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07130180480639031</v>
+        <v>0.07031048409797733</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>127</v>
@@ -7680,19 +7680,19 @@
         <v>109849</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>91157</v>
+        <v>90820</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>131557</v>
+        <v>133541</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.05256198796176911</v>
+        <v>0.05256198796176912</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04361826650883635</v>
+        <v>0.04345673818019878</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06294925329345857</v>
+        <v>0.06389846370523246</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>144388</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>119988</v>
+        <v>121743</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>173906</v>
+        <v>171333</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1381312969485231</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1147883424107441</v>
+        <v>0.1164673127382658</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1663701497363172</v>
+        <v>0.1639086547952293</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>159</v>
@@ -7730,19 +7730,19 @@
         <v>98098</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>82818</v>
+        <v>83914</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>113510</v>
+        <v>115053</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09391003268637323</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07928278240984654</v>
+        <v>0.080331591984249</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1086648785676689</v>
+        <v>0.110141480011467</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>284</v>
@@ -7751,19 +7751,19 @@
         <v>242486</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>212294</v>
+        <v>213381</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>277182</v>
+        <v>276449</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.116028130254871</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1015814835136164</v>
+        <v>0.102101607562441</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1326301385587548</v>
+        <v>0.1322792639171543</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>842146</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>812165</v>
+        <v>812860</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>872316</v>
+        <v>868559</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8056520877369173</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.776970238046493</v>
+        <v>0.7776354543803553</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8345154387882994</v>
+        <v>0.8309209141534706</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1267</v>
@@ -7801,19 +7801,19 @@
         <v>884034</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>863364</v>
+        <v>863529</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>902901</v>
+        <v>903082</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8462968250106994</v>
+        <v>0.8462968250106991</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8265095388690704</v>
+        <v>0.8266675196159098</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8643585453592184</v>
+        <v>0.8645311918732508</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2114</v>
@@ -7822,19 +7822,19 @@
         <v>1726180</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1688080</v>
+        <v>1688376</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1757663</v>
+        <v>1758580</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8259675947259619</v>
+        <v>0.825967594725962</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8077371872117589</v>
+        <v>0.8078787817712481</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8410320050121871</v>
+        <v>0.8414711222510575</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>6511</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2948</v>
+        <v>3226</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12328</v>
+        <v>12387</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.006694458895766954</v>
+        <v>0.006694458895766953</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003031087871829534</v>
+        <v>0.00331688664849728</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01267500620570784</v>
+        <v>0.01273587048117003</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -7947,19 +7947,19 @@
         <v>6726</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3147</v>
+        <v>3070</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12050</v>
+        <v>13466</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.007462521224517763</v>
+        <v>0.007462521224517764</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003491638423237863</v>
+        <v>0.003406599064272756</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01336902445528421</v>
+        <v>0.0149409384378983</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -7968,19 +7968,19 @@
         <v>13237</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8309</v>
+        <v>7998</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20809</v>
+        <v>20891</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007063883217993746</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004434156864528363</v>
+        <v>0.004268066111935538</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01110480546494312</v>
+        <v>0.01114836903768264</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>46355</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33493</v>
+        <v>32468</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>65115</v>
+        <v>63096</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04766214826387559</v>
+        <v>0.0476621482638756</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03443705649683417</v>
+        <v>0.03338370778139627</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06694997763978695</v>
+        <v>0.06487417622992295</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>38</v>
@@ -8018,19 +8018,19 @@
         <v>27982</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19836</v>
+        <v>19225</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39752</v>
+        <v>38421</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03104579318078514</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.022008186871793</v>
+        <v>0.02133012825001641</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04410495729693917</v>
+        <v>0.04262847307087715</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>78</v>
@@ -8039,19 +8039,19 @@
         <v>74337</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>57952</v>
+        <v>58996</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>94138</v>
+        <v>93314</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03966997694565177</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03092606607048538</v>
+        <v>0.03148298158708911</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0502363753654101</v>
+        <v>0.0497969976543426</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>99642</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>80020</v>
+        <v>79945</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>121698</v>
+        <v>123692</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1024509209659905</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08227524316668658</v>
+        <v>0.08219888920881541</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1251280951897033</v>
+        <v>0.1271787713732505</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>99</v>
@@ -8089,19 +8089,19 @@
         <v>67965</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>54867</v>
+        <v>54774</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>84877</v>
+        <v>85446</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.07540745626702852</v>
+        <v>0.07540745626702851</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06087436002132852</v>
+        <v>0.06077194713980998</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09417017733610884</v>
+        <v>0.09480151038812425</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>195</v>
@@ -8110,19 +8110,19 @@
         <v>167608</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>142281</v>
+        <v>142237</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>194663</v>
+        <v>194441</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08944349534035541</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0759280450323495</v>
+        <v>0.07590435521046648</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1038815703994499</v>
+        <v>0.1037632014363796</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>820076</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>792757</v>
+        <v>793772</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>842706</v>
+        <v>846743</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.843192471874367</v>
+        <v>0.8431924718743671</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8151026289326899</v>
+        <v>0.8161469697624629</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8664602317173674</v>
+        <v>0.870610337953695</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1169</v>
@@ -8160,19 +8160,19 @@
         <v>798637</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>780389</v>
+        <v>779697</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>814420</v>
+        <v>815790</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8860842293276685</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8658384542294995</v>
+        <v>0.8650703244333984</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9035963676792845</v>
+        <v>0.9051163194339245</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1968</v>
@@ -8181,19 +8181,19 @@
         <v>1618713</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1587842</v>
+        <v>1585563</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1650788</v>
+        <v>1650008</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8638226444959991</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8473484400213009</v>
+        <v>0.8461320941293454</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8809395452235089</v>
+        <v>0.8805233949513945</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>33920</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23777</v>
+        <v>24273</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>49189</v>
+        <v>48585</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.009766290002457229</v>
+        <v>0.009766290002457231</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.006845940074367259</v>
+        <v>0.006988596934110655</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01416247952820561</v>
+        <v>0.01398851435045136</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>42</v>
@@ -8306,19 +8306,19 @@
         <v>36426</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26124</v>
+        <v>26347</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>50082</v>
+        <v>53164</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.009910841226243416</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.007107813608973883</v>
+        <v>0.007168446749561892</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.013626199483586</v>
+        <v>0.01446485093841296</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>79</v>
@@ -8327,19 +8327,19 @@
         <v>70347</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>54034</v>
+        <v>53919</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>89761</v>
+        <v>88261</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.009840610014066222</v>
+        <v>0.009840610014066225</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007558734612437089</v>
+        <v>0.007542599554695485</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01255651571147074</v>
+        <v>0.01234663401640799</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>179580</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>152883</v>
+        <v>151351</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>212779</v>
+        <v>215721</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.05170446532834577</v>
+        <v>0.05170446532834576</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04401804557061854</v>
+        <v>0.04357674137578359</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06126307691722235</v>
+        <v>0.06211022201281897</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>198</v>
@@ -8377,19 +8377,19 @@
         <v>141460</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>122390</v>
+        <v>122603</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>164050</v>
+        <v>165909</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03848837774172891</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03329980417840241</v>
+        <v>0.03335772701393241</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04463464424186301</v>
+        <v>0.04514033068771159</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>354</v>
@@ -8398,19 +8398,19 @@
         <v>321040</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>285829</v>
+        <v>286604</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>360301</v>
+        <v>361369</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04490950533329469</v>
+        <v>0.0449095053332947</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03998385348251863</v>
+        <v>0.04009234272893732</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0504016011709868</v>
+        <v>0.05055102805074254</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>406478</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>364416</v>
+        <v>366794</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>453971</v>
+        <v>449806</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1170329364646315</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1049224032712749</v>
+        <v>0.1056071508775827</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1307070993830326</v>
+        <v>0.1295078227334712</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>512</v>
@@ -8448,19 +8448,19 @@
         <v>356855</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>325454</v>
+        <v>324741</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>392290</v>
+        <v>392334</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.09709287808330347</v>
+        <v>0.0970928780833035</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08854907129409299</v>
+        <v>0.08835508182674834</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1067338042704531</v>
+        <v>0.1067459421702268</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>868</v>
@@ -8469,19 +8469,19 @@
         <v>763334</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>701502</v>
+        <v>708387</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>818254</v>
+        <v>817998</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1067808934063431</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09813143327521165</v>
+        <v>0.09909448482694368</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1144635398709511</v>
+        <v>0.1144277323892046</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>2853218</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2801418</v>
+        <v>2800747</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2907901</v>
+        <v>2903536</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8214963082045655</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8065820485821418</v>
+        <v>0.8063890244001041</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8372405874360962</v>
+        <v>0.8359840399632278</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4529</v>
@@ -8519,19 +8519,19 @@
         <v>3140661</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3101092</v>
+        <v>3095081</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3177089</v>
+        <v>3177428</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8545079029487241</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8437419412218191</v>
+        <v>0.8421065498752425</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8644191499613213</v>
+        <v>0.8645114413177295</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>7314</v>
@@ -8540,19 +8540,19 @@
         <v>5993879</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5923954</v>
+        <v>5925655</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6061486</v>
+        <v>6058048</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.838468991246296</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8286874564611949</v>
+        <v>0.8289253169565726</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8479263779253186</v>
+        <v>0.8474454841994361</v>
       </c>
     </row>
     <row r="28">
